--- a/test-code-generator/Evaluation/QuantitativeEvaluation/6/UC1_TC2.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/6/UC1_TC2.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2110322481398545</v>
+        <v>0.206545068652675</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2110322481398545, 'ngram_match_score': 0.0320489473462495, 'weighted_ngram_match_score': 0.11739904563198739, 'syntax_match_score': 0.5408348457350273, 'dataflow_match_score': 0.15384615384615385}</t>
+          <t>{'codebleu': 0.206545068652675, 'ngram_match_score': 0.0320489473462495, 'weighted_ngram_match_score': 0.11739904563198739, 'syntax_match_score': 0.5408348457350273, 'dataflow_match_score': 0.1358974358974359}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
